--- a/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>170693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147409</v>
+        <v>147726</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196236</v>
+        <v>192507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1654442955813066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1428769773669231</v>
+        <v>0.143184208506872</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1902019619037611</v>
+        <v>0.1865880010572807</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>144</v>
@@ -765,19 +765,19 @@
         <v>146214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127014</v>
+        <v>126429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170684</v>
+        <v>172942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1111795743479777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0965801100313249</v>
+        <v>0.09613517736071191</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1297862331910108</v>
+        <v>0.1315035190197524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -786,19 +786,19 @@
         <v>316906</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286328</v>
+        <v>285798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>352930</v>
+        <v>351738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1350355936425479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1220060061745583</v>
+        <v>0.121780195324764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1503855014471761</v>
+        <v>0.1498777653156881</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>214914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189178</v>
+        <v>191383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240600</v>
+        <v>243965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2083056852933404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1833614677943968</v>
+        <v>0.1854988726643199</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2332022602878061</v>
+        <v>0.2364640507039579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -836,19 +836,19 @@
         <v>169473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146944</v>
+        <v>147971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194099</v>
+        <v>194842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1288660262919915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1117345783150921</v>
+        <v>0.112515731501493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1475909153390778</v>
+        <v>0.1481562453163302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>380</v>
@@ -857,19 +857,19 @@
         <v>384387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>348840</v>
+        <v>347247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>418109</v>
+        <v>417709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1637895271378097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.14864281382689</v>
+        <v>0.1479641048208121</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.178158828777015</v>
+        <v>0.1779884221310623</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>316508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>289929</v>
+        <v>289123</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>347098</v>
+        <v>349944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3067759942368354</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2810147370159751</v>
+        <v>0.2802329588258199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3364255607038601</v>
+        <v>0.3391838502194434</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>350</v>
@@ -907,19 +907,19 @@
         <v>354738</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>322867</v>
+        <v>323433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>386814</v>
+        <v>386424</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2697398678190916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.24550516133213</v>
+        <v>0.2459357761754066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2941302253855305</v>
+        <v>0.2938332227325822</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>670</v>
@@ -928,19 +928,19 @@
         <v>671246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>628062</v>
+        <v>626174</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>711346</v>
+        <v>710691</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2860218006538479</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2676208642215752</v>
+        <v>0.2668163784438087</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3031085457117296</v>
+        <v>0.3028295755013252</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>329609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>302517</v>
+        <v>300704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>361805</v>
+        <v>357745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3194740248885176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2932148731688308</v>
+        <v>0.2914577394990568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.350680808787578</v>
+        <v>0.3467451358973775</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>625</v>
@@ -978,19 +978,19 @@
         <v>644688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>608516</v>
+        <v>608251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>683012</v>
+        <v>681957</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4902145315409391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4627103127567458</v>
+        <v>0.4625084919798924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5193560455074278</v>
+        <v>0.518553720417148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>968</v>
@@ -999,19 +999,19 @@
         <v>974296</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>930145</v>
+        <v>928585</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1023012</v>
+        <v>1019181</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4151530785657945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3963403820363371</v>
+        <v>0.3956753328181297</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4359112597574517</v>
+        <v>0.4342789518934299</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>459766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>423301</v>
+        <v>422822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>495356</v>
+        <v>499397</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2715023347901188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2499693683433875</v>
+        <v>0.2496863913355811</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2925191050968208</v>
+        <v>0.2949057523276514</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>389</v>
@@ -1124,19 +1124,19 @@
         <v>395324</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>361923</v>
+        <v>360677</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>434595</v>
+        <v>427486</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2489958794249487</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2279581939965461</v>
+        <v>0.2271734815534494</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2737308925940082</v>
+        <v>0.2692533647422894</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>826</v>
@@ -1145,19 +1145,19 @@
         <v>855090</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>802182</v>
+        <v>805000</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>908607</v>
+        <v>904526</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2606117647352176</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2444866034631048</v>
+        <v>0.2453456224964127</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2769224919239678</v>
+        <v>0.2756789258589167</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>651513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611063</v>
+        <v>610698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>691743</v>
+        <v>691456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3847334905743811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3608470354401366</v>
+        <v>0.360631413837449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4084906649557473</v>
+        <v>0.4083208654651513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>462</v>
@@ -1195,19 +1195,19 @@
         <v>466439</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>433933</v>
+        <v>430032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>505171</v>
+        <v>501620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2937875689910359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2733136576371805</v>
+        <v>0.2708568761838576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.318183366877364</v>
+        <v>0.3159464734892317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1105</v>
@@ -1216,19 +1216,19 @@
         <v>1117951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1062695</v>
+        <v>1066274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1169593</v>
+        <v>1174242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.340725986321013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.323885215634819</v>
+        <v>0.3249759758307147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.356465281980765</v>
+        <v>0.3578821502604315</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>436060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401290</v>
+        <v>399708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471483</v>
+        <v>473599</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2575033979053339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2369713524539122</v>
+        <v>0.2360369870700402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2784218305902453</v>
+        <v>0.2796710736797565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>495</v>
@@ -1266,19 +1266,19 @@
         <v>510706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>475933</v>
+        <v>473307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548948</v>
+        <v>546234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3216696969333022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.299767912693671</v>
+        <v>0.2981136686609485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3457561079890498</v>
+        <v>0.3440466210496445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>917</v>
@@ -1287,19 +1287,19 @@
         <v>946766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897932</v>
+        <v>896353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1006905</v>
+        <v>1006855</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.288552604161476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2736692338748928</v>
+        <v>0.2731879544915372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3068817338097128</v>
+        <v>0.3068663375271073</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>146075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>123602</v>
+        <v>123939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168966</v>
+        <v>171679</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08626077673016619</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07298983093814576</v>
+        <v>0.07318860944866397</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09977850152301772</v>
+        <v>0.1013804415827752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>208</v>
@@ -1337,19 +1337,19 @@
         <v>215204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>187029</v>
+        <v>190493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>243031</v>
+        <v>245094</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1355468546507132</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1178007168118668</v>
+        <v>0.1199826858811151</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1530739103562005</v>
+        <v>0.1543728497693901</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>355</v>
@@ -1358,19 +1358,19 @@
         <v>361279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>326480</v>
+        <v>326527</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397701</v>
+        <v>398902</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1101096447822934</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09950363123235481</v>
+        <v>0.09951794500158637</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1212102600993391</v>
+        <v>0.1215762295808317</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>171882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149647</v>
+        <v>148444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194375</v>
+        <v>192836</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3117148393341806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.271391512460101</v>
+        <v>0.269208572560625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.352507341034429</v>
+        <v>0.3497157625031961</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -1483,19 +1483,19 @@
         <v>136093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117835</v>
+        <v>117211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156883</v>
+        <v>157185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2856620254269731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2473389009989212</v>
+        <v>0.2460286592081949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3293015998059891</v>
+        <v>0.3299341660366942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>294</v>
@@ -1504,19 +1504,19 @@
         <v>307975</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278112</v>
+        <v>280060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339719</v>
+        <v>337515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2996389224637906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2705845290927275</v>
+        <v>0.2724794963518073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3305237976097031</v>
+        <v>0.3283793967578991</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>199544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>176601</v>
+        <v>177320</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>221610</v>
+        <v>223532</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.361880229852502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3202736353326602</v>
+        <v>0.3215770051565288</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.401898595573192</v>
+        <v>0.4053844280465449</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>123</v>
@@ -1554,19 +1554,19 @@
         <v>130336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>111321</v>
+        <v>111680</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>150294</v>
+        <v>150890</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2735776368509823</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2336653080948192</v>
+        <v>0.2344191413461255</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3154713533134167</v>
+        <v>0.3167223016984432</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>317</v>
@@ -1575,19 +1575,19 @@
         <v>329879</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>297759</v>
+        <v>298465</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>360612</v>
+        <v>359641</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3209504947258396</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2896990863941981</v>
+        <v>0.29038606777416</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.350851579987253</v>
+        <v>0.3499067362537552</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>137986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118560</v>
+        <v>116161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163527</v>
+        <v>161135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2502436515753301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2150139423992657</v>
+        <v>0.2106624249739662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2965618073740697</v>
+        <v>0.2922248102221061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -1625,19 +1625,19 @@
         <v>150803</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130486</v>
+        <v>130911</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172289</v>
+        <v>172213</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3165391833711043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2738927927544264</v>
+        <v>0.2747849458121444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3616386734085631</v>
+        <v>0.3614800592313023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1646,19 +1646,19 @@
         <v>288789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259426</v>
+        <v>258573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>315508</v>
+        <v>318844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2809727441676118</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2524040579012946</v>
+        <v>0.2515746797310441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3069678459860199</v>
+        <v>0.3102139074200594</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>41996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30091</v>
+        <v>29316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56700</v>
+        <v>56661</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07616127923798729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05457077425132217</v>
+        <v>0.05316645055548005</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1028280887419176</v>
+        <v>0.1027573866677351</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -1696,19 +1696,19 @@
         <v>59180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45387</v>
+        <v>45830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74979</v>
+        <v>75241</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1242211543509403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09526843694736568</v>
+        <v>0.0961988355988119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1573823780723448</v>
+        <v>0.1579327537393075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -1717,19 +1717,19 @@
         <v>101176</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82779</v>
+        <v>82457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122025</v>
+        <v>122622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.098437838642758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08053857670647471</v>
+        <v>0.08022523116709097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1187216869746249</v>
+        <v>0.1193028261074506</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>802340</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>749070</v>
+        <v>753845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>851922</v>
+        <v>853826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2448739650737581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2286160900129789</v>
+        <v>0.2300731906485849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2600064650441409</v>
+        <v>0.2605875575872486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>663</v>
@@ -1842,19 +1842,19 @@
         <v>677630</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>634952</v>
+        <v>633864</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>722438</v>
+        <v>724490</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2005299956155066</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1879003216321455</v>
+        <v>0.1875781890339181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.213789826756162</v>
+        <v>0.2143971123978507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1431</v>
@@ -1863,19 +1863,19 @@
         <v>1479971</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1407191</v>
+        <v>1415105</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1548288</v>
+        <v>1550689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2223600134977757</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2114251213599541</v>
+        <v>0.2126142548436313</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2326244811761699</v>
+        <v>0.2329851891071869</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>1065970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1010389</v>
+        <v>1011435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1117483</v>
+        <v>1119586</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3253336765066387</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3083704279117792</v>
+        <v>0.3086897627214811</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3410555290986461</v>
+        <v>0.3416971824505677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>757</v>
@@ -1913,19 +1913,19 @@
         <v>766247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>719821</v>
+        <v>719327</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>818529</v>
+        <v>816942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2267542979179747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2130153263879888</v>
+        <v>0.2128691160621302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2422257581174284</v>
+        <v>0.2417561070811942</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1802</v>
@@ -1934,19 +1934,19 @@
         <v>1832218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1759767</v>
+        <v>1754606</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1910304</v>
+        <v>1905270</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2752837738242656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2643984128095166</v>
+        <v>0.2636229202434553</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2870159752662539</v>
+        <v>0.2862596135450548</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>890554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>839960</v>
+        <v>839432</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>952126</v>
+        <v>946214</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2717966870226289</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2563556147609876</v>
+        <v>0.2561944759544594</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2905885962001805</v>
+        <v>0.2887843521607318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>989</v>
@@ -1984,19 +1984,19 @@
         <v>1016247</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>953880</v>
+        <v>961633</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1064910</v>
+        <v>1067544</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3007363794583098</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2822799742018949</v>
+        <v>0.2845744646072057</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3151369652232799</v>
+        <v>0.315916513289175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1861</v>
@@ -2005,19 +2005,19 @@
         <v>1906801</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1834852</v>
+        <v>1832692</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1977602</v>
+        <v>1980805</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2864897071126358</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2756796285352925</v>
+        <v>0.2753550314046913</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2971272803178644</v>
+        <v>0.2976085210375961</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>517680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1579956713969742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>888</v>
@@ -2055,19 +2055,19 @@
         <v>919072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2719793270082089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1417</v>
@@ -2076,19 +2076,19 @@
         <v>1436752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2158665055653229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>153018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132639</v>
+        <v>130396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180244</v>
+        <v>177583</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1569992863733767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1360899967428172</v>
+        <v>0.1337882605729257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1849332805559447</v>
+        <v>0.1822030132023019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -2440,19 +2440,19 @@
         <v>131079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110539</v>
+        <v>110002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155700</v>
+        <v>154772</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09798156468436994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08262778449752431</v>
+        <v>0.08222589042957831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1163850655332298</v>
+        <v>0.1156919046141981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -2461,19 +2461,19 @@
         <v>284098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>254550</v>
+        <v>251579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>321120</v>
+        <v>317803</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1228562515789306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1100785681246714</v>
+        <v>0.1087935931099825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1388662667827217</v>
+        <v>0.1374318112616432</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>188297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162680</v>
+        <v>163854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>211919</v>
+        <v>215260</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1931957191337163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1669125183846328</v>
+        <v>0.1681167452110174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2174329277063093</v>
+        <v>0.2208604303381783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -2511,19 +2511,19 @@
         <v>218440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192141</v>
+        <v>194941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246410</v>
+        <v>249862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1632833892262214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1436251166597007</v>
+        <v>0.1457175586307993</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1841910843348116</v>
+        <v>0.1867714131886837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>385</v>
@@ -2532,19 +2532,19 @@
         <v>406737</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>375097</v>
+        <v>368470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>446715</v>
+        <v>446082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.17589078611383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1622083509898733</v>
+        <v>0.159342373917112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1931790907371184</v>
+        <v>0.1929053550867827</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>280215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>249688</v>
+        <v>248304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>311710</v>
+        <v>309752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2875057033689865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2561835576190425</v>
+        <v>0.2547644893216922</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3198198707667164</v>
+        <v>0.3178104467187852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>266</v>
@@ -2582,19 +2582,19 @@
         <v>288265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>257279</v>
+        <v>257514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>316509</v>
+        <v>319820</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2154772852497071</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1923151896745394</v>
+        <v>0.1924912723984288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2365897816545138</v>
+        <v>0.2390646086797417</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>526</v>
@@ -2603,19 +2603,19 @@
         <v>568480</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>526401</v>
+        <v>527655</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>610913</v>
+        <v>613105</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2458356978917408</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2276388884246344</v>
+        <v>0.2281809634954952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2641854961905745</v>
+        <v>0.2651331704190888</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>353112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319384</v>
+        <v>323646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>383080</v>
+        <v>385316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3622992911239205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.327693106476006</v>
+        <v>0.3320661902378682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3930461267583601</v>
+        <v>0.3953407181503031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>654</v>
@@ -2653,19 +2653,19 @@
         <v>700013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>667350</v>
+        <v>660579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>739470</v>
+        <v>735046</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5232577608397015</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4988422547621755</v>
+        <v>0.4937808792026322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5527520955675563</v>
+        <v>0.5494453564149049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>977</v>
@@ -2674,19 +2674,19 @@
         <v>1053125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1005275</v>
+        <v>1003234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1102732</v>
+        <v>1102794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4554172644154986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4347248267194964</v>
+        <v>0.4338421258310194</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4768693978670428</v>
+        <v>0.4768964458196836</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>660917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>617818</v>
+        <v>617497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>702250</v>
+        <v>703044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3365231541973628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3145783702714412</v>
+        <v>0.3144149338694861</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3575688947292628</v>
+        <v>0.3579729695686361</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>494</v>
@@ -2799,19 +2799,19 @@
         <v>520548</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>479951</v>
+        <v>481266</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>560831</v>
+        <v>561116</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2961357162329883</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2730401213279442</v>
+        <v>0.2737883455665953</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3190521838283818</v>
+        <v>0.3192144694582212</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1125</v>
@@ -2820,19 +2820,19 @@
         <v>1181465</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1123280</v>
+        <v>1126924</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1239924</v>
+        <v>1245397</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3174480003436341</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3018142450026162</v>
+        <v>0.3027931876200928</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3331552717338981</v>
+        <v>0.3346257867412463</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>560892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>518566</v>
+        <v>521475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>602580</v>
+        <v>603668</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2855925610215465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2640414274412333</v>
+        <v>0.2655226037807698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3068191244059539</v>
+        <v>0.3073733540036057</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>432</v>
@@ -2870,19 +2870,19 @@
         <v>462915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>427045</v>
+        <v>425588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>507385</v>
+        <v>503370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2633485778709112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2429422351937687</v>
+        <v>0.2421137566218357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.288647225950188</v>
+        <v>0.2863629792349859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>973</v>
@@ -2891,19 +2891,19 @@
         <v>1023806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>968186</v>
+        <v>969056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1080739</v>
+        <v>1081580</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2750866358551025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2601418858555958</v>
+        <v>0.26037573488112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2903839059518458</v>
+        <v>0.2906097675973719</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>529691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>492485</v>
+        <v>488721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>571450</v>
+        <v>571263</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2697060769817404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2507616217906831</v>
+        <v>0.2488449710404514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2909686629022011</v>
+        <v>0.2908735964033966</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>448</v>
@@ -2941,19 +2941,19 @@
         <v>484152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446197</v>
+        <v>443562</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>523594</v>
+        <v>524626</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2754299670717266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2538379576496891</v>
+        <v>0.2523387196589704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.297868666822527</v>
+        <v>0.2984554353184959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>936</v>
@@ -2962,19 +2962,19 @@
         <v>1013843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>959531</v>
+        <v>962498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1070823</v>
+        <v>1074705</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2724094939255096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2578164266738969</v>
+        <v>0.2586137967694359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2877194348084412</v>
+        <v>0.2887626038151057</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>212457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>184312</v>
+        <v>186879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243240</v>
+        <v>244217</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1081782077993504</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09384744153215978</v>
+        <v>0.09515452229117273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1238520695228916</v>
+        <v>0.1243493530101021</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>261</v>
@@ -3012,19 +3012,19 @@
         <v>290188</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257574</v>
+        <v>255983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>322736</v>
+        <v>322247</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1650857388243739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1465320195319167</v>
+        <v>0.1456268635814234</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1836019764183104</v>
+        <v>0.1833238937372301</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>457</v>
@@ -3033,19 +3033,19 @@
         <v>502646</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>462257</v>
+        <v>456916</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>545642</v>
+        <v>547126</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1350558698757537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1242038054878004</v>
+        <v>0.1227686763519603</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1466086074655759</v>
+        <v>0.1470072150616578</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>163201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140603</v>
+        <v>140587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184183</v>
+        <v>185194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3391674697942826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2922040972427473</v>
+        <v>0.2921708368715802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3827724583252567</v>
+        <v>0.3848735485849821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -3158,19 +3158,19 @@
         <v>133809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115344</v>
+        <v>112712</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>155881</v>
+        <v>156300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2917567363399127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2514973854768632</v>
+        <v>0.2457568423421136</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3398833036574886</v>
+        <v>0.340796657392574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -3179,19 +3179,19 @@
         <v>297010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267342</v>
+        <v>267115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331313</v>
+        <v>330151</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.316030901953058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2844633712720104</v>
+        <v>0.2842212120470811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3525303335218438</v>
+        <v>0.3512944437954246</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>171734</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>148735</v>
+        <v>150801</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>194046</v>
+        <v>194798</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3569014162010026</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3091049729396436</v>
+        <v>0.3133981703563319</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.403270762175094</v>
+        <v>0.4048327089538213</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>130</v>
@@ -3229,19 +3229,19 @@
         <v>149409</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>125584</v>
+        <v>128081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>173025</v>
+        <v>171216</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3257716139709911</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.273824412420768</v>
+        <v>0.2792680501701325</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3772637002791485</v>
+        <v>0.3733187826607148</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>291</v>
@@ -3250,19 +3250,19 @@
         <v>321143</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>290476</v>
+        <v>291322</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>352295</v>
+        <v>355586</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3417099874104788</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3090785837070083</v>
+        <v>0.309978967577517</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3748559864948824</v>
+        <v>0.3783583356620022</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>100124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83050</v>
+        <v>81816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120877</v>
+        <v>120623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2080800166762195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1725954467678239</v>
+        <v>0.170031433138629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2512082503565802</v>
+        <v>0.2506819070603664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -3300,19 +3300,19 @@
         <v>131635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111903</v>
+        <v>112823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>153228</v>
+        <v>153731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2870169798750455</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.243993693289163</v>
+        <v>0.2459999719965139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3340976267574109</v>
+        <v>0.3351951365554449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -3321,19 +3321,19 @@
         <v>231759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206435</v>
+        <v>202689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261087</v>
+        <v>258845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2466014710213126</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2196549043604317</v>
+        <v>0.2156699960319703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2778076734663362</v>
+        <v>0.2754216956500921</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>46122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33507</v>
+        <v>33439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62698</v>
+        <v>61623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09585109732849534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06963589121166552</v>
+        <v>0.06949358203672887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1303008823532329</v>
+        <v>0.1280655263964304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -3371,19 +3371,19 @@
         <v>43778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31679</v>
+        <v>31512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57539</v>
+        <v>57618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09545466981405067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06907307288392117</v>
+        <v>0.06870932451236741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1254579770964258</v>
+        <v>0.125630854376699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -3392,19 +3392,19 @@
         <v>89900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72150</v>
+        <v>73341</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110455</v>
+        <v>110274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09565763961515064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07677073117283843</v>
+        <v>0.07803796280272862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1175283550064624</v>
+        <v>0.1173361733420504</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>977137</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>923050</v>
+        <v>917507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1027768</v>
+        <v>1030038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2857306490140458</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2699148117057086</v>
+        <v>0.2682940334015567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3005361872416209</v>
+        <v>0.3011998592245066</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>742</v>
@@ -3517,19 +3517,19 @@
         <v>785436</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>737863</v>
+        <v>734714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>839647</v>
+        <v>840290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2209863156432585</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2076013580078166</v>
+        <v>0.2067153971671698</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.236238722123002</v>
+        <v>0.2364196488494504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1663</v>
@@ -3538,19 +3538,19 @@
         <v>1762573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1692921</v>
+        <v>1689566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1840074</v>
+        <v>1850387</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2527343957633952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2427470469881206</v>
+        <v>0.2422659991022227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2638473313721622</v>
+        <v>0.2653261044909738</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>920923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>868155</v>
+        <v>872724</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>968344</v>
+        <v>979926</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2692928550215686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2538626028352373</v>
+        <v>0.2551987192462175</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2831594691316019</v>
+        <v>0.2865464813938392</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>766</v>
@@ -3588,19 +3588,19 @@
         <v>830764</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>777549</v>
+        <v>776083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>878945</v>
+        <v>882313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2337394331894475</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2187673053528227</v>
+        <v>0.2183546981820388</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2472953533125794</v>
+        <v>0.2482431160177729</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1649</v>
@@ -3609,19 +3609,19 @@
         <v>1751687</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1678763</v>
+        <v>1679249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1834861</v>
+        <v>1826286</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2511734359214996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2407169277059827</v>
+        <v>0.2407866863073679</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2630997931401755</v>
+        <v>0.2618701952554981</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>910031</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>850407</v>
+        <v>857610</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>959985</v>
+        <v>962687</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2661078840808496</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2486727966590662</v>
+        <v>0.2507790434590958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2807153832725839</v>
+        <v>0.2815054710240682</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>831</v>
@@ -3659,19 +3659,19 @@
         <v>904051</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>854866</v>
+        <v>849214</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>957662</v>
+        <v>954764</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2543592090477829</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2405206292702923</v>
+        <v>0.2389306041823845</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2694430088702383</v>
+        <v>0.2686275814200408</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1670</v>
@@ -3680,19 +3680,19 @@
         <v>1814082</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1737674</v>
+        <v>1734739</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1891484</v>
+        <v>1890488</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2601202981939034</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2491641928639407</v>
+        <v>0.2487433427921303</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2712189370332772</v>
+        <v>0.2710761335148298</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>611692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>566212</v>
+        <v>564935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>659114</v>
+        <v>656036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.178868611883536</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1655696839272248</v>
+        <v>0.1651960927262312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1927355430840706</v>
+        <v>0.1918354838448449</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>955</v>
@@ -3730,19 +3730,19 @@
         <v>1033979</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>980710</v>
+        <v>972729</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1088004</v>
+        <v>1081489</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2909150421195111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2759275658679255</v>
+        <v>0.2736821051086867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3061151505112808</v>
+        <v>0.3042822174211737</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1514</v>
@@ -3751,19 +3751,19 @@
         <v>1645671</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1567459</v>
+        <v>1579017</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1718225</v>
+        <v>1723577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2359718701212018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2247571543648202</v>
+        <v>0.2264143865393849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2463754670007839</v>
+        <v>0.247142787671438</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>170742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148707</v>
+        <v>149893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>198834</v>
+        <v>194273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2263436983654654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1971337692897304</v>
+        <v>0.1987059788086909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2635843219590781</v>
+        <v>0.2575374154550448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -4115,19 +4115,19 @@
         <v>150556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127172</v>
+        <v>129741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>174981</v>
+        <v>174184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1513638602658426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1278552421521391</v>
+        <v>0.1304376015377899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1759201737894574</v>
+        <v>0.1751192832338712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>313</v>
@@ -4136,19 +4136,19 @@
         <v>321297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290149</v>
+        <v>288769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354905</v>
+        <v>353860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1837026678688383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1658933664919832</v>
+        <v>0.1651043021295321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2029180612529276</v>
+        <v>0.2023204865129588</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>115884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98537</v>
+        <v>98947</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136760</v>
+        <v>137318</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1536219714362091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1306255632207166</v>
+        <v>0.1311694555697001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1812965048327584</v>
+        <v>0.182035877063899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>107</v>
@@ -4186,19 +4186,19 @@
         <v>113278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94307</v>
+        <v>93249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>134778</v>
+        <v>133007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1138860294077118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09481367924462658</v>
+        <v>0.09374931570217333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1355020256992414</v>
+        <v>0.1337209001243283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -4207,19 +4207,19 @@
         <v>229162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200613</v>
+        <v>200986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256627</v>
+        <v>259369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1310241430226815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.114700904319149</v>
+        <v>0.1149141253898985</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1467272195250981</v>
+        <v>0.1482950235449336</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>195126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170686</v>
+        <v>173140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>219188</v>
+        <v>219734</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.258668588964635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2262699890850329</v>
+        <v>0.2295228231428991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.290566387510554</v>
+        <v>0.2912897176305502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -4257,19 +4257,19 @@
         <v>223419</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>197609</v>
+        <v>196858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249974</v>
+        <v>250496</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2246184925272456</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1986696914745749</v>
+        <v>0.1979150837104569</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2513164292270877</v>
+        <v>0.2518411386091695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>397</v>
@@ -4278,19 +4278,19 @@
         <v>418545</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>384297</v>
+        <v>382748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>457078</v>
+        <v>456759</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2393043006786202</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2197228863535583</v>
+        <v>0.2188372889078578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2613359591569085</v>
+        <v>0.2611533239625675</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>272595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245680</v>
+        <v>246866</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>298258</v>
+        <v>297090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3613657412336905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3256854279633931</v>
+        <v>0.3272573761849966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3953855201333907</v>
+        <v>0.3938373577444848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>434</v>
@@ -4328,19 +4328,19 @@
         <v>507408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>474726</v>
+        <v>475455</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>539265</v>
+        <v>539874</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5101316177992</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.477275102861989</v>
+        <v>0.4780075467325278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5421604066420739</v>
+        <v>0.5427721894981071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>720</v>
@@ -4349,19 +4349,19 @@
         <v>780003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>736449</v>
+        <v>734410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>821315</v>
+        <v>822423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.44596888842986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4210667540868386</v>
+        <v>0.4199013725896623</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4695892620813065</v>
+        <v>0.4702228022026879</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>803683</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>758498</v>
+        <v>758413</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>848567</v>
+        <v>851145</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3870587511149343</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.365297542918278</v>
+        <v>0.3652563378381792</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4086751108529237</v>
+        <v>0.4099168662545044</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>698</v>
@@ -4474,19 +4474,19 @@
         <v>697796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>656311</v>
+        <v>651461</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>740855</v>
+        <v>738636</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3509511104574063</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.33008627993518</v>
+        <v>0.3276472227426432</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3726073673953078</v>
+        <v>0.3714911169480709</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1465</v>
@@ -4495,19 +4495,19 @@
         <v>1501479</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1443278</v>
+        <v>1438046</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1562131</v>
+        <v>1562249</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3693961711796745</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3550775319123643</v>
+        <v>0.3537903816650666</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3843178381800023</v>
+        <v>0.3843469450099874</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>535729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>494541</v>
+        <v>498049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>575868</v>
+        <v>578399</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.258010342158362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2381742014878539</v>
+        <v>0.2398637135992918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2773415433260744</v>
+        <v>0.2785604770715734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>478</v>
@@ -4545,19 +4545,19 @@
         <v>490367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>450624</v>
+        <v>456581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>528634</v>
+        <v>530618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.246626423333832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2266380102094192</v>
+        <v>0.2296339194810226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2658725699491842</v>
+        <v>0.2668699782799793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>979</v>
@@ -4566,19 +4566,19 @@
         <v>1026096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>968726</v>
+        <v>972320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1084311</v>
+        <v>1085304</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2524417319541711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2383274629305774</v>
+        <v>0.2392115812442677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2667638701268142</v>
+        <v>0.2670081522435241</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>490696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450207</v>
+        <v>452971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529026</v>
+        <v>529826</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2363223603036909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2168226083830401</v>
+        <v>0.218153585464734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2547820242214254</v>
+        <v>0.2551676964041985</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>422</v>
@@ -4616,19 +4616,19 @@
         <v>452769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>413211</v>
+        <v>417832</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491726</v>
+        <v>491102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2277165268885775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2078213894189291</v>
+        <v>0.2101453788205766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2473098565066968</v>
+        <v>0.2469958761988692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>875</v>
@@ -4637,19 +4637,19 @@
         <v>943465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>887201</v>
+        <v>891146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>996016</v>
+        <v>1003905</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2321126911634205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2182705971774007</v>
+        <v>0.2192411702131295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2450414404846835</v>
+        <v>0.2469821668776276</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>246277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>216775</v>
+        <v>215393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>276860</v>
+        <v>276750</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1186085464230128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1044002753658975</v>
+        <v>0.1037348007408644</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.133337379307238</v>
+        <v>0.1332846964978359</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>310</v>
@@ -4687,19 +4687,19 @@
         <v>347368</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>313413</v>
+        <v>314072</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>382614</v>
+        <v>384161</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1747059393201842</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1576287724455855</v>
+        <v>0.1579598278807209</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1924328779237699</v>
+        <v>0.1932109330345006</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -4708,19 +4708,19 @@
         <v>593645</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546333</v>
+        <v>543391</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>642907</v>
+        <v>643108</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.146049405702734</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1344097215779928</v>
+        <v>0.1336858390046557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1581690137964297</v>
+        <v>0.1582184306051254</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>233929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>209014</v>
+        <v>208233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259121</v>
+        <v>256151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4277480860619918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3821887917348691</v>
+        <v>0.380760401930503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4738123149807884</v>
+        <v>0.4683802229483468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>198</v>
@@ -4833,19 +4833,19 @@
         <v>198612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177152</v>
+        <v>175518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221480</v>
+        <v>222152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3616782347307373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3225980896429884</v>
+        <v>0.3196232540286452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4033214362273064</v>
+        <v>0.4045460849758615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -4854,19 +4854,19 @@
         <v>432542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>400706</v>
+        <v>397579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>466909</v>
+        <v>464309</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3946452191115926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3655982409039609</v>
+        <v>0.3627453532171651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4260016604161089</v>
+        <v>0.4236294289636344</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>168040</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>146280</v>
+        <v>147103</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>190745</v>
+        <v>191490</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3072677262016629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.267478179055702</v>
+        <v>0.26898311602331</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3487838220173639</v>
+        <v>0.3501463480266668</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>153</v>
@@ -4904,19 +4904,19 @@
         <v>159638</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>136937</v>
+        <v>137441</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>181064</v>
+        <v>183916</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2907063730370012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2493665331266815</v>
+        <v>0.2502839224035996</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3297223912399926</v>
+        <v>0.3349170176278477</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>308</v>
@@ -4925,19 +4925,19 @@
         <v>327679</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>298873</v>
+        <v>296549</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>360568</v>
+        <v>361920</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2989700191646103</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2726876670135416</v>
+        <v>0.270567072339662</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3289772302030929</v>
+        <v>0.3302110329307232</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>98336</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80161</v>
+        <v>80494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116371</v>
+        <v>118863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1798116569367916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1465769716715328</v>
+        <v>0.1471860536504877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2127879545333556</v>
+        <v>0.2173445004458315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -4975,19 +4975,19 @@
         <v>122364</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103756</v>
+        <v>103741</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143182</v>
+        <v>141801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2228283163708616</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1889432549204236</v>
+        <v>0.1889151379886772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2607391635410517</v>
+        <v>0.2582232562782339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -4996,19 +4996,19 @@
         <v>220701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>195250</v>
+        <v>193550</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250815</v>
+        <v>249959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2013642217633306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1781435745472497</v>
+        <v>0.1765922637115817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2288400952085921</v>
+        <v>0.2280594200954445</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>46580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33416</v>
+        <v>33839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60889</v>
+        <v>62902</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08517253079955373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06110221247092827</v>
+        <v>0.0618754691039695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1113378449022689</v>
+        <v>0.115018451179751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -5046,19 +5046,19 @@
         <v>68526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52701</v>
+        <v>53388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85527</v>
+        <v>88152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1247870758613999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09596936253807122</v>
+        <v>0.09722097683118459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1557474114939212</v>
+        <v>0.1605273711634863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -5067,19 +5067,19 @@
         <v>115105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>90660</v>
+        <v>93917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136498</v>
+        <v>136744</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1050205399604666</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08271727811277144</v>
+        <v>0.08568859180756647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1245386450503369</v>
+        <v>0.1247634766815509</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>1208354</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1152770</v>
+        <v>1155972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1263851</v>
+        <v>1273133</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3577533504174875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3412967347869806</v>
+        <v>0.3422448590077766</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3741841765939288</v>
+        <v>0.3769322025336101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1043</v>
@@ -5192,19 +5192,19 @@
         <v>1046964</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>992302</v>
+        <v>990712</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1098464</v>
+        <v>1098790</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2964139332332065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2809383055238504</v>
+        <v>0.2804881171597924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3109946851656197</v>
+        <v>0.3110869465557782</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2192</v>
@@ -5213,19 +5213,19 @@
         <v>2255318</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2180575</v>
+        <v>2176270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2335118</v>
+        <v>2332864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3263979499716513</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3155809436363943</v>
+        <v>0.3149578380743073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3379469345527617</v>
+        <v>0.3376207724880774</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>819654</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>766774</v>
+        <v>768215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>872209</v>
+        <v>873661</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2426720629508779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2270160683054697</v>
+        <v>0.2274427608691526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.258232049586606</v>
+        <v>0.25866187091495</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>738</v>
@@ -5263,19 +5263,19 @@
         <v>763284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>709236</v>
+        <v>716079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>808066</v>
+        <v>818905</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2160991202065933</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.200797262972267</v>
+        <v>0.2027346059448149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2287777374622164</v>
+        <v>0.2318465536415419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1511</v>
@@ -5284,19 +5284,19 @@
         <v>1582937</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1511386</v>
+        <v>1515121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1653734</v>
+        <v>1654285</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2290885419619494</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2187334521841258</v>
+        <v>0.2192739772750819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2393345353313349</v>
+        <v>0.2394142343802608</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>784159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>732468</v>
+        <v>736223</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>833996</v>
+        <v>834454</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2321631805135182</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2168593258321564</v>
+        <v>0.2179711110404995</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.24691840365948</v>
+        <v>0.2470539401857446</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>742</v>
@@ -5334,19 +5334,19 @@
         <v>798552</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>750758</v>
+        <v>748380</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>851014</v>
+        <v>851957</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2260841256804264</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2125527423033678</v>
+        <v>0.2118796996398381</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2409371612878443</v>
+        <v>0.2412040722186311</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1479</v>
@@ -5355,19 +5355,19 @@
         <v>1582710</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1509738</v>
+        <v>1514549</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1653445</v>
+        <v>1658399</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2290556974728636</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2184948615112639</v>
+        <v>0.2191910865137369</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.239292755574215</v>
+        <v>0.2400096104039</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>565452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>527712</v>
+        <v>522172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>607811</v>
+        <v>612374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1674114061181163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1562378925836921</v>
+        <v>0.1545977720563513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1799524106770388</v>
+        <v>0.1813034298421529</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>803</v>
@@ -5405,19 +5405,19 @@
         <v>923301</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>868468</v>
+        <v>867909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>974809</v>
+        <v>980344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2614028208797738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2458787663731462</v>
+        <v>0.2457204368363484</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2759857160196034</v>
+        <v>0.2775526868523385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1359</v>
@@ -5426,19 +5426,19 @@
         <v>1488753</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1418722</v>
+        <v>1417915</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1567361</v>
+        <v>1558243</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2154578105935356</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2053226484422266</v>
+        <v>0.205205964932044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2268342950314807</v>
+        <v>0.225514731343746</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>86310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68835</v>
+        <v>69732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107562</v>
+        <v>107731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1504729316450751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1200075575491596</v>
+        <v>0.1215709839946373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1875250227357957</v>
+        <v>0.1878190613547815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -5790,19 +5790,19 @@
         <v>65253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53404</v>
+        <v>52176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83017</v>
+        <v>80419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0804128971599663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06581162010189878</v>
+        <v>0.06429751812468122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1023038483857265</v>
+        <v>0.09910232288281173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -5811,19 +5811,19 @@
         <v>151562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130629</v>
+        <v>128999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180105</v>
+        <v>174845</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.109426557182627</v>
+        <v>0.1094265571826271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09431288981364895</v>
+        <v>0.09313606034120565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1300341120853285</v>
+        <v>0.1262365139706162</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>110060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91119</v>
+        <v>91404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130775</v>
+        <v>130608</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1918802239696657</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1588573597907638</v>
+        <v>0.1593539567329128</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2279937280531695</v>
+        <v>0.2277029986954923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -5861,19 +5861,19 @@
         <v>102509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86722</v>
+        <v>89229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118120</v>
+        <v>118991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1263250138830349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1068698535101713</v>
+        <v>0.1099590753647367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1455620342165091</v>
+        <v>0.1466362344594537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>282</v>
@@ -5882,19 +5882,19 @@
         <v>212570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>187490</v>
+        <v>189613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>233115</v>
+        <v>237069</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1534731103997712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1353655493382941</v>
+        <v>0.1368989225006742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1683066489826737</v>
+        <v>0.1711612650396157</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>132250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112726</v>
+        <v>113704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>152171</v>
+        <v>152916</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2305658650998498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1965282882952296</v>
+        <v>0.1982327549592105</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2652956994018399</v>
+        <v>0.2665944034488583</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>268</v>
@@ -5932,19 +5932,19 @@
         <v>155629</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>138459</v>
+        <v>140354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172011</v>
+        <v>174270</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1917862215455442</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1706274827629292</v>
+        <v>0.1729621006106639</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2119735642778205</v>
+        <v>0.2147578891329296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>426</v>
@@ -5953,19 +5953,19 @@
         <v>287879</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>263461</v>
+        <v>262217</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>316772</v>
+        <v>314299</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2078458681351235</v>
+        <v>0.2078458681351236</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1902159680214182</v>
+        <v>0.1893179059419152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2287061261169811</v>
+        <v>0.2269204159060297</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>244969</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>223429</v>
+        <v>221277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>268094</v>
+        <v>267381</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4270809792854094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3895274078983299</v>
+        <v>0.3857759741204113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4673982156480252</v>
+        <v>0.4661539980151692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>889</v>
@@ -6003,19 +6003,19 @@
         <v>488081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>466419</v>
+        <v>465627</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>510288</v>
+        <v>508129</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6014758674114546</v>
+        <v>0.6014758674114545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5747817674014214</v>
+        <v>0.5738058527773743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6288420099217086</v>
+        <v>0.6261816828958947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1215</v>
@@ -6024,19 +6024,19 @@
         <v>733050</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>702097</v>
+        <v>700329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>766730</v>
+        <v>762448</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5292544642824781</v>
+        <v>0.5292544642824782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5069070361323484</v>
+        <v>0.5056301203636354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5535712985753233</v>
+        <v>0.5504798728103454</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>581104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>529454</v>
+        <v>534122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>635237</v>
+        <v>632433</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.261644733760024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2383890718492015</v>
+        <v>0.2404906820353679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2860180382416382</v>
+        <v>0.2847557039576229</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>607</v>
@@ -6149,19 +6149,19 @@
         <v>529928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>491471</v>
+        <v>491785</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>572365</v>
+        <v>569968</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2447230076954248</v>
+        <v>0.2447230076954249</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2269635710363821</v>
+        <v>0.227108297999802</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2643205883870361</v>
+        <v>0.2632137667540245</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1036</v>
@@ -6170,19 +6170,19 @@
         <v>1111033</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1048379</v>
+        <v>1050689</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1177496</v>
+        <v>1177254</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2532910140711104</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2390073744102663</v>
+        <v>0.2395339175871728</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2684432254151398</v>
+        <v>0.2683881011383913</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>715523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>665679</v>
+        <v>665175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>769297</v>
+        <v>770289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3221672316249399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2997246499075625</v>
+        <v>0.2994977741932618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3463790808227887</v>
+        <v>0.3468259028505893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>746</v>
@@ -6220,19 +6220,19 @@
         <v>617885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>580592</v>
+        <v>575637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>657640</v>
+        <v>657775</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.285341728891453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2681197993680742</v>
+        <v>0.2658317049333778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3037007187054966</v>
+        <v>0.3037633960738138</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1359</v>
@@ -6241,19 +6241,19 @@
         <v>1333408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1266988</v>
+        <v>1269157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1397884</v>
+        <v>1399940</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3039876484036724</v>
+        <v>0.3039876484036725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2888454978867029</v>
+        <v>0.2893399556654996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.318686836933781</v>
+        <v>0.3191554216155343</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>517291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473733</v>
+        <v>472117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>563434</v>
+        <v>561568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2329126100796519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2133002471739797</v>
+        <v>0.2125725831915821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2536885142438469</v>
+        <v>0.2528482352935849</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>748</v>
@@ -6291,19 +6291,19 @@
         <v>506467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>472836</v>
+        <v>471294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540483</v>
+        <v>542495</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.233888370045419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2183577912284936</v>
+        <v>0.2176456936691288</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2495970824400028</v>
+        <v>0.250526539148812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1254</v>
@@ -6312,19 +6312,19 @@
         <v>1023758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>969486</v>
+        <v>967826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1081420</v>
+        <v>1085644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2333943118402504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2210215757715229</v>
+        <v>0.2206430649382694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2465399159931647</v>
+        <v>0.2475030231481995</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>407049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>372180</v>
+        <v>369822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>447349</v>
+        <v>443433</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1832754245353842</v>
+        <v>0.1832754245353843</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1675754805084609</v>
+        <v>0.1665141307262685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2014206550077411</v>
+        <v>0.1996577759212109</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>810</v>
@@ -6362,19 +6362,19 @@
         <v>511141</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>474009</v>
+        <v>477638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>544174</v>
+        <v>547415</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.236046893367703</v>
+        <v>0.2360468933677031</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2188991631539816</v>
+        <v>0.220575212167468</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2513018949096692</v>
+        <v>0.2527986644968378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1245</v>
@@ -6383,19 +6383,19 @@
         <v>918190</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>865716</v>
+        <v>870102</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>968159</v>
+        <v>972820</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2093270256849668</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1973642137461243</v>
+        <v>0.1983641240048332</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2207190032602827</v>
+        <v>0.2217815540511115</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>204440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176628</v>
+        <v>178381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>231665</v>
+        <v>233251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.288295628955126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2490751878588254</v>
+        <v>0.2515470241936283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3266876596987342</v>
+        <v>0.3289235016934164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -6508,19 +6508,19 @@
         <v>226241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204802</v>
+        <v>203750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247950</v>
+        <v>248284</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3091601463395767</v>
+        <v>0.3091601463395766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2798639473931746</v>
+        <v>0.2784260027103204</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3388268676043508</v>
+        <v>0.33928326505485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>453</v>
@@ -6529,19 +6529,19 @@
         <v>430681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>396615</v>
+        <v>395641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>468856</v>
+        <v>469142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2988919224906911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2752504584105059</v>
+        <v>0.2745742544657718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3253853154518452</v>
+        <v>0.3255841797561297</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>205010</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>180256</v>
+        <v>180451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>230662</v>
+        <v>232024</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2890995269617606</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2541916084636484</v>
+        <v>0.2544663622136814</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3252722288288757</v>
+        <v>0.3271939021076731</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>261</v>
@@ -6579,19 +6579,19 @@
         <v>199021</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>176579</v>
+        <v>178832</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>220689</v>
+        <v>223199</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2719641968535457</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2412966801179345</v>
+        <v>0.2443762113850185</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3015735180495543</v>
+        <v>0.3050039277503027</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>456</v>
@@ -6600,19 +6600,19 @@
         <v>404031</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>367995</v>
+        <v>371394</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>437695</v>
+        <v>436713</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2803971455785819</v>
+        <v>0.2803971455785818</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2553879474943195</v>
+        <v>0.2577468383881683</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3037597818027737</v>
+        <v>0.3030784443168316</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>208513</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>184967</v>
+        <v>183428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>235605</v>
+        <v>234811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2940382504047549</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2608344975862292</v>
+        <v>0.2586641945604052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3322428877448506</v>
+        <v>0.3311234793543686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -6650,19 +6650,19 @@
         <v>183243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163122</v>
+        <v>163413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205270</v>
+        <v>205183</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2504030941190306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2229083491580681</v>
+        <v>0.2233058356149894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2805040067951064</v>
+        <v>0.2803840230034501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>480</v>
@@ -6671,19 +6671,19 @@
         <v>391755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360347</v>
+        <v>360253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>428091</v>
+        <v>425978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.271877616829862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2500800572334328</v>
+        <v>0.2500148897831374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2970944939433255</v>
+        <v>0.2956281938897602</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>91171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73154</v>
+        <v>72482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110909</v>
+        <v>110244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1285665936783585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1031589855146363</v>
+        <v>0.1022116091688507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1563999233942909</v>
+        <v>0.1554634726440979</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -6721,19 +6721,19 @@
         <v>123287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106614</v>
+        <v>107207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>139709</v>
+        <v>140935</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1684725626878471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1456886016546654</v>
+        <v>0.1464991120130003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1909140751308528</v>
+        <v>0.1925890924162287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -6742,19 +6742,19 @@
         <v>214458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191070</v>
+        <v>192414</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240925</v>
+        <v>239378</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1488333151008651</v>
+        <v>0.148833315100865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1326020452377531</v>
+        <v>0.1335352280320832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1672015379678728</v>
+        <v>0.1661277630135893</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>871854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>811621</v>
+        <v>809496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>938957</v>
+        <v>934139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2488388360820721</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2316473297515508</v>
+        <v>0.2310409611210222</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2679908824963705</v>
+        <v>0.2666156153966876</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>981</v>
@@ -6867,19 +6867,19 @@
         <v>821422</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>775477</v>
+        <v>771529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>870450</v>
+        <v>872552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2214860576139465</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2090975938040611</v>
+        <v>0.2080331167374055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2347058917118036</v>
+        <v>0.2352728032974244</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1658</v>
@@ -6888,19 +6888,19 @@
         <v>1693276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1615576</v>
+        <v>1614965</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1781982</v>
+        <v>1773249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.234773731808944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2240005479831731</v>
+        <v>0.2239159303676152</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2470728706346529</v>
+        <v>0.2458620422524355</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>1030594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>973860</v>
+        <v>970525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1093942</v>
+        <v>1091430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2941451551365837</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2779525042136918</v>
+        <v>0.2770008511362277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3122257203910478</v>
+        <v>0.311508623405043</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1166</v>
@@ -6938,19 +6938,19 @@
         <v>919415</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>868487</v>
+        <v>870943</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>967800</v>
+        <v>970287</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2479087318619821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2341766280761136</v>
+        <v>0.2348387662743799</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2609552598938689</v>
+        <v>0.2616256431326734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2097</v>
@@ -6959,19 +6959,19 @@
         <v>1950009</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1879593</v>
+        <v>1874907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2032984</v>
+        <v>2037195</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.270369869736178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.260606639538974</v>
+        <v>0.2599569348997026</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2818745185722651</v>
+        <v>0.2824582813164345</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>858054</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>807582</v>
+        <v>804907</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>919590</v>
+        <v>916523</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.244900031642606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2304947708568597</v>
+        <v>0.2297312881589343</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2624632354758937</v>
+        <v>0.2615877966151792</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1282</v>
@@ -7009,19 +7009,19 @@
         <v>845338</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>803021</v>
+        <v>803053</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>891188</v>
+        <v>889352</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2279349428241782</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2165244386550793</v>
+        <v>0.2165333348116967</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2402976335946768</v>
+        <v>0.2398026907114535</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2160</v>
@@ -7030,19 +7030,19 @@
         <v>1703392</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1633836</v>
+        <v>1636454</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1774754</v>
+        <v>1780423</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2361763934384606</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2265323748630097</v>
+        <v>0.2268952696906664</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2460707495535237</v>
+        <v>0.246856726631164</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>743189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>698412</v>
+        <v>693883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>791106</v>
+        <v>792747</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2121159771387382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1993361530465222</v>
+        <v>0.198043383460608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2257922445775966</v>
+        <v>0.2262605305820735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1890</v>
@@ -7080,19 +7080,19 @@
         <v>1122508</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1075676</v>
+        <v>1073292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1169109</v>
+        <v>1166839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3026702676998932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2900426016433772</v>
+        <v>0.2893997570957394</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3152356378879463</v>
+        <v>0.3146236095097434</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2751</v>
@@ -7101,19 +7101,19 @@
         <v>1865697</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1795442</v>
+        <v>1796879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1931396</v>
+        <v>1929262</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2586800050164174</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2489391589218215</v>
+        <v>0.249138342904026</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.267789234984162</v>
+        <v>0.2674933931724238</v>
       </c>
     </row>
     <row r="23">
